--- a/Code/Results/Cases/Case_2_79/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_79/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.14096531928933</v>
+        <v>13.8401708162692</v>
       </c>
       <c r="C2">
-        <v>17.46742776927507</v>
+        <v>9.698000264760836</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.1131600450575</v>
+        <v>23.1620564085656</v>
       </c>
       <c r="F2">
-        <v>38.116072650887</v>
+        <v>40.53173586766559</v>
       </c>
       <c r="G2">
-        <v>29.55459009781053</v>
+        <v>27.72711812156854</v>
       </c>
       <c r="H2">
-        <v>9.152548786475293</v>
+        <v>13.56646574590677</v>
       </c>
       <c r="I2">
-        <v>11.90093725820598</v>
+        <v>18.44498993411096</v>
       </c>
       <c r="J2">
-        <v>4.412750397800772</v>
+        <v>7.740156476360871</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.92164336125282</v>
+        <v>16.11008585924913</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.64498603398823</v>
+        <v>13.21169926634978</v>
       </c>
       <c r="C3">
-        <v>16.28971520808687</v>
+        <v>9.064147127781697</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.96314754423632</v>
+        <v>22.96171323551449</v>
       </c>
       <c r="F3">
-        <v>36.13333850442707</v>
+        <v>40.24183036564349</v>
       </c>
       <c r="G3">
-        <v>27.95189632731966</v>
+        <v>27.48693160992143</v>
       </c>
       <c r="H3">
-        <v>9.01848623093546</v>
+        <v>13.60311421318064</v>
       </c>
       <c r="I3">
-        <v>11.91621010370176</v>
+        <v>18.54396862518594</v>
       </c>
       <c r="J3">
-        <v>4.441490638869008</v>
+        <v>7.766173648753321</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.09088074064231</v>
+        <v>16.16446645961638</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.67454249240189</v>
+        <v>12.81212016026835</v>
       </c>
       <c r="C4">
-        <v>15.52724200240298</v>
+        <v>8.650560436789192</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.23669811281085</v>
+        <v>22.84270201091407</v>
       </c>
       <c r="F4">
-        <v>34.9012330572297</v>
+        <v>40.0757361857871</v>
       </c>
       <c r="G4">
-        <v>26.97295047720398</v>
+        <v>27.35290458361353</v>
       </c>
       <c r="H4">
-        <v>8.94714500500732</v>
+        <v>13.62930535219188</v>
       </c>
       <c r="I4">
-        <v>11.94645820977515</v>
+        <v>18.6104567490327</v>
       </c>
       <c r="J4">
-        <v>4.462337463273772</v>
+        <v>7.783365264415436</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.19835054496847</v>
+        <v>16.19978560492988</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.26592028284567</v>
+        <v>12.6460739672477</v>
       </c>
       <c r="C5">
-        <v>15.20654283952522</v>
+        <v>8.47586900063639</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.93581848411132</v>
+        <v>22.79525312589652</v>
       </c>
       <c r="F5">
-        <v>34.39599773000716</v>
+        <v>40.01110502251946</v>
       </c>
       <c r="G5">
-        <v>26.57580490244604</v>
+        <v>27.30172548302748</v>
       </c>
       <c r="H5">
-        <v>8.920734654596957</v>
+        <v>13.640901717298</v>
       </c>
       <c r="I5">
-        <v>11.96368396118859</v>
+        <v>18.63897992145912</v>
       </c>
       <c r="J5">
-        <v>4.471599837211659</v>
+        <v>7.790676892655202</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.24303754553011</v>
+        <v>16.2146645821906</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.1972711476521</v>
+        <v>12.61831531768578</v>
       </c>
       <c r="C6">
-        <v>15.15268546198198</v>
+        <v>8.446489618893448</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.88557416689174</v>
+        <v>22.7874388648753</v>
       </c>
       <c r="F6">
-        <v>34.31193244498241</v>
+        <v>40.00055909644259</v>
       </c>
       <c r="G6">
-        <v>26.5099830272262</v>
+        <v>27.29343633723546</v>
       </c>
       <c r="H6">
-        <v>8.916507005443194</v>
+        <v>13.64288291723558</v>
       </c>
       <c r="I6">
-        <v>11.96683009058939</v>
+        <v>18.64380222116723</v>
       </c>
       <c r="J6">
-        <v>4.473183126966862</v>
+        <v>7.791909455803912</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.25051163497464</v>
+        <v>16.21716461692019</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.66908508524492</v>
+        <v>12.80989349171763</v>
       </c>
       <c r="C7">
-        <v>15.52295748310033</v>
+        <v>8.648229415498964</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19.2326595600285</v>
+        <v>22.84205779507434</v>
       </c>
       <c r="F7">
-        <v>34.89443118317119</v>
+        <v>40.07485211039879</v>
       </c>
       <c r="G7">
-        <v>26.96758649531142</v>
+        <v>27.3522003768472</v>
       </c>
       <c r="H7">
-        <v>8.946778182648652</v>
+        <v>13.6294580124968</v>
       </c>
       <c r="I7">
-        <v>11.94667114229109</v>
+        <v>18.61083564872165</v>
       </c>
       <c r="J7">
-        <v>4.462459320725943</v>
+        <v>7.783462633136004</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.19894959898409</v>
+        <v>16.19998429832614</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.63585860657167</v>
+        <v>13.62644396636352</v>
       </c>
       <c r="C8">
-        <v>17.06946348375572</v>
+        <v>9.484501512454854</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.72099687763327</v>
+        <v>23.09217436729073</v>
       </c>
       <c r="F8">
-        <v>37.43577242341581</v>
+        <v>40.42934196999794</v>
       </c>
       <c r="G8">
-        <v>29.00118998810439</v>
+        <v>27.64154723476315</v>
       </c>
       <c r="H8">
-        <v>9.103989892106563</v>
+        <v>13.57833398199988</v>
       </c>
       <c r="I8">
-        <v>11.90166096796158</v>
+        <v>18.47792667619214</v>
       </c>
       <c r="J8">
-        <v>4.421972441395158</v>
+        <v>7.748874548167152</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.97925617279355</v>
+        <v>16.12843648441812</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.08600656109787</v>
+        <v>15.11051454686994</v>
       </c>
       <c r="C9">
-        <v>19.79442088721393</v>
+        <v>10.93160956846299</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.46987678505795</v>
+        <v>23.61240379478199</v>
       </c>
       <c r="F9">
-        <v>42.28456689793859</v>
+        <v>41.21611051538611</v>
       </c>
       <c r="G9">
-        <v>33.01278236485814</v>
+        <v>28.31273278288948</v>
       </c>
       <c r="H9">
-        <v>9.50336411468119</v>
+        <v>13.50753372243102</v>
       </c>
       <c r="I9">
-        <v>11.99462148750437</v>
+        <v>18.26300937863772</v>
       </c>
       <c r="J9">
-        <v>4.369791328929576</v>
+        <v>7.690708659470308</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.57685789946823</v>
+        <v>16.00339357168977</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.38062846836687</v>
+        <v>16.11994314934334</v>
       </c>
       <c r="C10">
-        <v>21.61580365038769</v>
+        <v>11.87835212206626</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>25.37925398059183</v>
+        <v>24.00998395597477</v>
       </c>
       <c r="F10">
-        <v>45.74926373010945</v>
+        <v>41.84577234380665</v>
       </c>
       <c r="G10">
-        <v>35.98423784032712</v>
+        <v>28.86460350299448</v>
       </c>
       <c r="H10">
-        <v>9.857387748882008</v>
+        <v>13.47371164471614</v>
       </c>
       <c r="I10">
-        <v>12.19446904807623</v>
+        <v>18.13349014116784</v>
       </c>
       <c r="J10">
-        <v>4.350772174965903</v>
+        <v>7.653871302270613</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.29897597014635</v>
+        <v>15.92076636095315</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.37421067191286</v>
+        <v>16.56006267449019</v>
       </c>
       <c r="C11">
-        <v>22.40690134262182</v>
+        <v>12.28400482487095</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.22368904517311</v>
+        <v>24.19357746380497</v>
       </c>
       <c r="F11">
-        <v>47.30333928492902</v>
+        <v>42.142434481191</v>
       </c>
       <c r="G11">
-        <v>37.3846566296487</v>
+        <v>29.12731375131457</v>
       </c>
       <c r="H11">
-        <v>10.03260798562043</v>
+        <v>13.46232199622437</v>
       </c>
       <c r="I11">
-        <v>12.31828839094879</v>
+        <v>18.08084063683423</v>
       </c>
       <c r="J11">
-        <v>4.346976605541363</v>
+        <v>7.638395337577883</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.17657582324237</v>
+        <v>15.88517111870989</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.74339429357216</v>
+        <v>16.72388080451777</v>
       </c>
       <c r="C12">
-        <v>22.7012414512605</v>
+        <v>12.43403526981036</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>26.54002881188873</v>
+        <v>24.26343992702556</v>
       </c>
       <c r="F12">
-        <v>47.88873254303334</v>
+        <v>42.25615394212991</v>
       </c>
       <c r="G12">
-        <v>37.9136454717171</v>
+        <v>29.22837169382835</v>
       </c>
       <c r="H12">
-        <v>10.10107811079662</v>
+        <v>13.45858699592984</v>
       </c>
       <c r="I12">
-        <v>12.37024624030189</v>
+        <v>18.06181423942613</v>
       </c>
       <c r="J12">
-        <v>4.346298044491386</v>
+        <v>7.632719466544409</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.1308220000614</v>
+        <v>15.87197771182204</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.66419546037779</v>
+        <v>16.68872765358607</v>
       </c>
       <c r="C13">
-        <v>22.63808007481768</v>
+        <v>12.40188254001644</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>26.47205067266483</v>
+        <v>24.24837954369465</v>
       </c>
       <c r="F13">
-        <v>47.7627932987564</v>
+        <v>42.23160251887306</v>
       </c>
       <c r="G13">
-        <v>37.79977409611343</v>
+        <v>29.20653865717733</v>
       </c>
       <c r="H13">
-        <v>10.08623634413181</v>
+        <v>13.45936563739621</v>
       </c>
       <c r="I13">
-        <v>12.35882547308711</v>
+        <v>18.06587125765892</v>
       </c>
       <c r="J13">
-        <v>4.346409426365272</v>
+        <v>7.633933655214002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.14064900586117</v>
+        <v>15.87480645133576</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.40472423542717</v>
+        <v>16.5735976485381</v>
       </c>
       <c r="C14">
-        <v>22.43122078230365</v>
+        <v>12.29641959848235</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.24978280904324</v>
+        <v>24.19931859110842</v>
       </c>
       <c r="F14">
-        <v>47.35156131299102</v>
+        <v>42.15176312195021</v>
       </c>
       <c r="G14">
-        <v>37.42820230962738</v>
+        <v>29.13559687453825</v>
       </c>
       <c r="H14">
-        <v>10.03819814906183</v>
+        <v>13.46200311306126</v>
       </c>
       <c r="I14">
-        <v>12.32245949960403</v>
+        <v>18.07925701624405</v>
       </c>
       <c r="J14">
-        <v>4.346905210561106</v>
+        <v>7.637924680267286</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.17279954285292</v>
+        <v>15.88407996673606</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.24487566297645</v>
+        <v>16.50270385933534</v>
       </c>
       <c r="C15">
-        <v>22.30383707355823</v>
+        <v>12.23135460444874</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.11319286832414</v>
+        <v>24.16930997861951</v>
       </c>
       <c r="F15">
-        <v>47.09926986125989</v>
+        <v>42.10303616101494</v>
       </c>
       <c r="G15">
-        <v>37.20043703410372</v>
+        <v>29.09234504623275</v>
       </c>
       <c r="H15">
-        <v>10.00905160884509</v>
+        <v>13.46369401212254</v>
       </c>
       <c r="I15">
-        <v>12.30085434457513</v>
+        <v>18.08757507162209</v>
       </c>
       <c r="J15">
-        <v>4.347309577337521</v>
+        <v>7.64039333883755</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.19257102751592</v>
+        <v>15.88979745260382</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.31469785388431</v>
+        <v>16.09078730274225</v>
       </c>
       <c r="C16">
-        <v>21.56336270446029</v>
+        <v>11.85133965811622</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>25.3235847297033</v>
+        <v>23.99803611850557</v>
       </c>
       <c r="F16">
-        <v>45.64726102712201</v>
+        <v>41.82658287507908</v>
       </c>
       <c r="G16">
-        <v>35.89252432384874</v>
+        <v>28.84766083679524</v>
       </c>
       <c r="H16">
-        <v>9.846228685132536</v>
+        <v>13.47453669299246</v>
       </c>
       <c r="I16">
-        <v>12.18706859708102</v>
+        <v>18.13705786202122</v>
       </c>
       <c r="J16">
-        <v>4.351123001953656</v>
+        <v>7.654908502534006</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.30705737864694</v>
+        <v>15.92313261885891</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.73130397339336</v>
+        <v>15.83312576652936</v>
       </c>
       <c r="C17">
-        <v>21.09961724910122</v>
+        <v>11.61181542476878</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>24.83301479892805</v>
+        <v>23.89362713138379</v>
       </c>
       <c r="F17">
-        <v>44.75086944432315</v>
+        <v>41.65954337688888</v>
       </c>
       <c r="G17">
-        <v>35.10454168683126</v>
+        <v>28.70047084166497</v>
       </c>
       <c r="H17">
-        <v>9.750028573433173</v>
+        <v>13.48221433407441</v>
       </c>
       <c r="I17">
-        <v>12.12593850699776</v>
+        <v>18.16902632403785</v>
       </c>
       <c r="J17">
-        <v>4.354747737090432</v>
+        <v>7.664141497477031</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.37833063309689</v>
+        <v>15.94409239304946</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.39101076260667</v>
+        <v>15.68313522858029</v>
       </c>
       <c r="C18">
-        <v>20.82934721270194</v>
+        <v>11.47169089422794</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.54857296758326</v>
+        <v>23.83383423986911</v>
       </c>
       <c r="F18">
-        <v>44.23320382774435</v>
+        <v>41.56443480475158</v>
       </c>
       <c r="G18">
-        <v>34.66302874556848</v>
+        <v>28.61691507243572</v>
       </c>
       <c r="H18">
-        <v>9.696026075882184</v>
+        <v>13.48700626686938</v>
       </c>
       <c r="I18">
-        <v>12.09385621764162</v>
+        <v>18.18800329335378</v>
       </c>
       <c r="J18">
-        <v>4.357285798992832</v>
+        <v>7.669572679981913</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.41970107421685</v>
+        <v>15.95633546728927</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.27497442980749</v>
+        <v>15.63204691324474</v>
       </c>
       <c r="C19">
-        <v>20.73722664622939</v>
+        <v>11.42384187834096</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.45187395269568</v>
+        <v>23.81363573688342</v>
       </c>
       <c r="F19">
-        <v>44.05757286903064</v>
+        <v>41.532401662536</v>
       </c>
       <c r="G19">
-        <v>34.51352150699339</v>
+        <v>28.58881716895038</v>
       </c>
       <c r="H19">
-        <v>9.67796765099215</v>
+        <v>13.48869319655439</v>
       </c>
       <c r="I19">
-        <v>12.08351182525949</v>
+        <v>18.19452954245561</v>
       </c>
       <c r="J19">
-        <v>4.35822121861595</v>
+        <v>7.671432291897681</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.43377243922297</v>
+        <v>15.96051300000857</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.79389673947307</v>
+        <v>15.86074037844753</v>
       </c>
       <c r="C20">
-        <v>21.14934862346479</v>
+        <v>11.63755695576726</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>24.88547252046258</v>
+        <v>23.90471508154969</v>
       </c>
       <c r="F20">
-        <v>44.84650751017495</v>
+        <v>41.67722546514504</v>
       </c>
       <c r="G20">
-        <v>35.18624688475406</v>
+        <v>28.716025928697</v>
       </c>
       <c r="H20">
-        <v>9.760131093111699</v>
+        <v>13.48135810058339</v>
       </c>
       <c r="I20">
-        <v>12.13212483771464</v>
+        <v>18.16556214245155</v>
       </c>
       <c r="J20">
-        <v>4.354314549842463</v>
+        <v>7.663146145083706</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.3707044360047</v>
+        <v>15.94184178238402</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.48112759102149</v>
+        <v>16.60749208477926</v>
       </c>
       <c r="C21">
-        <v>22.49212103691941</v>
+        <v>12.32749368267289</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.3151607432483</v>
+        <v>24.21372019193013</v>
       </c>
       <c r="F21">
-        <v>47.47243319417478</v>
+        <v>42.17517717208965</v>
       </c>
       <c r="G21">
-        <v>37.53737637539705</v>
+        <v>29.15639227298049</v>
       </c>
       <c r="H21">
-        <v>10.0522499996205</v>
+        <v>13.46121271009177</v>
       </c>
       <c r="I21">
-        <v>12.33300084747241</v>
+        <v>18.07530050100536</v>
       </c>
       <c r="J21">
-        <v>4.346738489521948</v>
+        <v>7.636747408976541</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.16333977950335</v>
+        <v>15.88134836141514</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.54273914008291</v>
+        <v>17.07891507548282</v>
       </c>
       <c r="C22">
-        <v>23.33929124443844</v>
+        <v>12.75753991050327</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>27.22961166139369</v>
+        <v>24.41762742927923</v>
       </c>
       <c r="F22">
-        <v>49.17066148994167</v>
+        <v>42.50861695784646</v>
       </c>
       <c r="G22">
-        <v>39.07478104836278</v>
+        <v>29.45332931960473</v>
       </c>
       <c r="H22">
-        <v>10.25555160665179</v>
+        <v>13.45141697887624</v>
       </c>
       <c r="I22">
-        <v>12.49398346466611</v>
+        <v>18.02162258333768</v>
       </c>
       <c r="J22">
-        <v>4.346241154143529</v>
+        <v>7.620570080765743</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.03130464506247</v>
+        <v>15.84347759334675</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.979839774471</v>
+        <v>16.82885836822218</v>
       </c>
       <c r="C23">
-        <v>22.88986761362928</v>
+        <v>12.52991981705729</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>26.7433482233591</v>
+        <v>24.30863711959083</v>
       </c>
       <c r="F23">
-        <v>48.26587749385225</v>
+        <v>42.32995250800982</v>
       </c>
       <c r="G23">
-        <v>38.25486812106136</v>
+        <v>29.29404738565066</v>
       </c>
       <c r="H23">
-        <v>10.14588527409966</v>
+        <v>13.45633571500802</v>
       </c>
       <c r="I23">
-        <v>12.4052389118478</v>
+        <v>18.04978227247241</v>
       </c>
       <c r="J23">
-        <v>4.346077816180186</v>
+        <v>7.629105704503784</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.10144704198716</v>
+        <v>15.86353781042163</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.7656138004121</v>
+        <v>15.84826159007045</v>
       </c>
       <c r="C24">
-        <v>21.12687647012239</v>
+        <v>11.6259267452752</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24.86176388335291</v>
+        <v>23.89970148872898</v>
       </c>
       <c r="F24">
-        <v>44.8032767647822</v>
+        <v>41.66922850575097</v>
       </c>
       <c r="G24">
-        <v>35.14930892927094</v>
+        <v>28.70899014638696</v>
       </c>
       <c r="H24">
-        <v>9.755559687584469</v>
+        <v>13.4817440266033</v>
       </c>
       <c r="I24">
-        <v>12.12931848529869</v>
+        <v>18.16712643717742</v>
       </c>
       <c r="J24">
-        <v>4.354508983722123</v>
+        <v>7.663595760745748</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.37415101237469</v>
+        <v>15.94285868210672</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.19542413591854</v>
+        <v>14.72265549818173</v>
       </c>
       <c r="C25">
-        <v>19.08951377129365</v>
+        <v>10.56065851794268</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.74532090366689</v>
+        <v>23.46876369304006</v>
       </c>
       <c r="F25">
-        <v>40.98931471020788</v>
+        <v>40.99387783991993</v>
       </c>
       <c r="G25">
-        <v>31.92694661640376</v>
+        <v>28.12048602497246</v>
       </c>
       <c r="H25">
-        <v>9.385027677693317</v>
+        <v>13.52350817164488</v>
       </c>
       <c r="I25">
-        <v>11.94787444911478</v>
+        <v>18.31620324695972</v>
       </c>
       <c r="J25">
-        <v>4.380725646369199</v>
+        <v>7.705409045983027</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.68264045438282</v>
+        <v>16.03559364439154</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_79/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_79/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.8401708162692</v>
+        <v>22.14096531928945</v>
       </c>
       <c r="C2">
-        <v>9.698000264760836</v>
+        <v>17.46742776927505</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.1620564085656</v>
+        <v>21.11316004505755</v>
       </c>
       <c r="F2">
-        <v>40.53173586766559</v>
+        <v>38.11607265088703</v>
       </c>
       <c r="G2">
-        <v>27.72711812156854</v>
+        <v>29.55459009781059</v>
       </c>
       <c r="H2">
-        <v>13.56646574590677</v>
+        <v>9.152548786475233</v>
       </c>
       <c r="I2">
-        <v>18.44498993411096</v>
+        <v>11.90093725820588</v>
       </c>
       <c r="J2">
-        <v>7.740156476360871</v>
+        <v>4.412750397800774</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.11008585924913</v>
+        <v>10.92164336125279</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.21169926634978</v>
+        <v>20.6449860339882</v>
       </c>
       <c r="C3">
-        <v>9.064147127781697</v>
+        <v>16.28971520808692</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.96171323551449</v>
+        <v>19.96314754423631</v>
       </c>
       <c r="F3">
-        <v>40.24183036564349</v>
+        <v>36.13333850442712</v>
       </c>
       <c r="G3">
-        <v>27.48693160992143</v>
+        <v>27.95189632731974</v>
       </c>
       <c r="H3">
-        <v>13.60311421318064</v>
+        <v>9.018486230935483</v>
       </c>
       <c r="I3">
-        <v>18.54396862518594</v>
+        <v>11.9162101037018</v>
       </c>
       <c r="J3">
-        <v>7.766173648753321</v>
+        <v>4.441490638868931</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.16446645961638</v>
+        <v>11.09088074064227</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.81212016026835</v>
+        <v>19.67454249240201</v>
       </c>
       <c r="C4">
-        <v>8.650560436789192</v>
+        <v>15.5272420024029</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.84270201091407</v>
+        <v>19.23669811281077</v>
       </c>
       <c r="F4">
-        <v>40.0757361857871</v>
+        <v>34.90123305722971</v>
       </c>
       <c r="G4">
-        <v>27.35290458361353</v>
+        <v>26.97295047720408</v>
       </c>
       <c r="H4">
-        <v>13.62930535219188</v>
+        <v>8.947145005007265</v>
       </c>
       <c r="I4">
-        <v>18.6104567490327</v>
+        <v>11.94645820977511</v>
       </c>
       <c r="J4">
-        <v>7.783365264415436</v>
+        <v>4.462337463273696</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.19978560492988</v>
+        <v>11.19835054496846</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.6460739672477</v>
+        <v>19.26592028284569</v>
       </c>
       <c r="C5">
-        <v>8.47586900063639</v>
+        <v>15.20654283952521</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.79525312589652</v>
+        <v>18.93581848411139</v>
       </c>
       <c r="F5">
-        <v>40.01110502251946</v>
+        <v>34.39599773000725</v>
       </c>
       <c r="G5">
-        <v>27.30172548302748</v>
+        <v>26.57580490244604</v>
       </c>
       <c r="H5">
-        <v>13.640901717298</v>
+        <v>8.920734654596952</v>
       </c>
       <c r="I5">
-        <v>18.63897992145912</v>
+        <v>11.96368396118859</v>
       </c>
       <c r="J5">
-        <v>7.790676892655202</v>
+        <v>4.471599837211662</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.2146645821906</v>
+        <v>11.24303754553011</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.61831531768578</v>
+        <v>19.19727114765212</v>
       </c>
       <c r="C6">
-        <v>8.446489618893448</v>
+        <v>15.15268546198193</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.7874388648753</v>
+        <v>18.88557416689172</v>
       </c>
       <c r="F6">
-        <v>40.00055909644259</v>
+        <v>34.31193244498238</v>
       </c>
       <c r="G6">
-        <v>27.29343633723546</v>
+        <v>26.5099830272262</v>
       </c>
       <c r="H6">
-        <v>13.64288291723558</v>
+        <v>8.916507005443194</v>
       </c>
       <c r="I6">
-        <v>18.64380222116723</v>
+        <v>11.96683009058941</v>
       </c>
       <c r="J6">
-        <v>7.791909455803912</v>
+        <v>4.473183126966919</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.21716461692019</v>
+        <v>11.2505116349746</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.80989349171763</v>
+        <v>19.66908508524502</v>
       </c>
       <c r="C7">
-        <v>8.648229415498964</v>
+        <v>15.52295748310036</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.84205779507434</v>
+        <v>19.23265956002851</v>
       </c>
       <c r="F7">
-        <v>40.07485211039879</v>
+        <v>34.89443118317113</v>
       </c>
       <c r="G7">
-        <v>27.3522003768472</v>
+        <v>26.96758649531126</v>
       </c>
       <c r="H7">
-        <v>13.6294580124968</v>
+        <v>8.946778182648538</v>
       </c>
       <c r="I7">
-        <v>18.61083564872165</v>
+        <v>11.94667114229093</v>
       </c>
       <c r="J7">
-        <v>7.783462633136004</v>
+        <v>4.462459320725917</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.19998429832614</v>
+        <v>11.19894959898398</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.62644396636352</v>
+        <v>21.63585860657163</v>
       </c>
       <c r="C8">
-        <v>9.484501512454854</v>
+        <v>17.0694634837557</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.09217436729073</v>
+        <v>20.72099687763334</v>
       </c>
       <c r="F8">
-        <v>40.42934196999794</v>
+        <v>37.43577242341581</v>
       </c>
       <c r="G8">
-        <v>27.64154723476315</v>
+        <v>29.00118998810429</v>
       </c>
       <c r="H8">
-        <v>13.57833398199988</v>
+        <v>9.103989892106551</v>
       </c>
       <c r="I8">
-        <v>18.47792667619214</v>
+        <v>11.90166096796156</v>
       </c>
       <c r="J8">
-        <v>7.748874548167152</v>
+        <v>4.421972441395209</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.12843648441812</v>
+        <v>10.97925617279352</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.11051454686994</v>
+        <v>25.08600656109793</v>
       </c>
       <c r="C9">
-        <v>10.93160956846299</v>
+        <v>19.79442088721389</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.61240379478199</v>
+        <v>23.46987678505793</v>
       </c>
       <c r="F9">
-        <v>41.21611051538611</v>
+        <v>42.28456689793862</v>
       </c>
       <c r="G9">
-        <v>28.31273278288948</v>
+        <v>33.01278236485818</v>
       </c>
       <c r="H9">
-        <v>13.50753372243102</v>
+        <v>9.503364114681171</v>
       </c>
       <c r="I9">
-        <v>18.26300937863772</v>
+        <v>11.99462148750438</v>
       </c>
       <c r="J9">
-        <v>7.690708659470308</v>
+        <v>4.369791328929556</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.00339357168977</v>
+        <v>10.57685789946822</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.11994314934334</v>
+        <v>27.38062846836687</v>
       </c>
       <c r="C10">
-        <v>11.87835212206626</v>
+        <v>21.61580365038762</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.00998395597477</v>
+        <v>25.37925398059183</v>
       </c>
       <c r="F10">
-        <v>41.84577234380665</v>
+        <v>45.7492637301094</v>
       </c>
       <c r="G10">
-        <v>28.86460350299448</v>
+        <v>35.98423784032703</v>
       </c>
       <c r="H10">
-        <v>13.47371164471614</v>
+        <v>9.857387748881958</v>
       </c>
       <c r="I10">
-        <v>18.13349014116784</v>
+        <v>12.1944690480762</v>
       </c>
       <c r="J10">
-        <v>7.653871302270613</v>
+        <v>4.350772174965916</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.92076636095315</v>
+        <v>10.29897597014636</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.56006267449019</v>
+        <v>28.37421067191283</v>
       </c>
       <c r="C11">
-        <v>12.28400482487095</v>
+        <v>22.40690134262179</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.19357746380497</v>
+        <v>26.22368904517309</v>
       </c>
       <c r="F11">
-        <v>42.142434481191</v>
+        <v>47.30333928492902</v>
       </c>
       <c r="G11">
-        <v>29.12731375131457</v>
+        <v>37.38465662964865</v>
       </c>
       <c r="H11">
-        <v>13.46232199622437</v>
+        <v>10.03260798562044</v>
       </c>
       <c r="I11">
-        <v>18.08084063683423</v>
+        <v>12.31828839094885</v>
       </c>
       <c r="J11">
-        <v>7.638395337577883</v>
+        <v>4.346976605541335</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.88517111870989</v>
+        <v>10.1765758232424</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.72388080451777</v>
+        <v>28.74339429357218</v>
       </c>
       <c r="C12">
-        <v>12.43403526981036</v>
+        <v>22.70124145126049</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.26343992702556</v>
+        <v>26.54002881188871</v>
       </c>
       <c r="F12">
-        <v>42.25615394212991</v>
+        <v>47.88873254303338</v>
       </c>
       <c r="G12">
-        <v>29.22837169382835</v>
+        <v>37.91364547171717</v>
       </c>
       <c r="H12">
-        <v>13.45858699592984</v>
+        <v>10.10107811079666</v>
       </c>
       <c r="I12">
-        <v>18.06181423942613</v>
+        <v>12.37024624030197</v>
       </c>
       <c r="J12">
-        <v>7.632719466544409</v>
+        <v>4.346298044491366</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.87197771182204</v>
+        <v>10.13082200006145</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.68872765358607</v>
+        <v>28.66419546037785</v>
       </c>
       <c r="C13">
-        <v>12.40188254001644</v>
+        <v>22.63808007481775</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24.24837954369465</v>
+        <v>26.47205067266482</v>
       </c>
       <c r="F13">
-        <v>42.23160251887306</v>
+        <v>47.76279329875641</v>
       </c>
       <c r="G13">
-        <v>29.20653865717733</v>
+        <v>37.79977409611351</v>
       </c>
       <c r="H13">
-        <v>13.45936563739621</v>
+        <v>10.08623634413179</v>
       </c>
       <c r="I13">
-        <v>18.06587125765892</v>
+        <v>12.35882547308708</v>
       </c>
       <c r="J13">
-        <v>7.633933655214002</v>
+        <v>4.346409426365232</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.87480645133576</v>
+        <v>10.14064900586114</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.5735976485381</v>
+        <v>28.40472423542717</v>
       </c>
       <c r="C14">
-        <v>12.29641959848235</v>
+        <v>22.43122078230366</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>24.19931859110842</v>
+        <v>26.24978280904324</v>
       </c>
       <c r="F14">
-        <v>42.15176312195021</v>
+        <v>47.35156131299104</v>
       </c>
       <c r="G14">
-        <v>29.13559687453825</v>
+        <v>37.42820230962742</v>
       </c>
       <c r="H14">
-        <v>13.46200311306126</v>
+        <v>10.03819814906184</v>
       </c>
       <c r="I14">
-        <v>18.07925701624405</v>
+        <v>12.32245949960403</v>
       </c>
       <c r="J14">
-        <v>7.637924680267286</v>
+        <v>4.346905210561136</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.88407996673606</v>
+        <v>10.17279954285289</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.50270385933534</v>
+        <v>28.24487566297651</v>
       </c>
       <c r="C15">
-        <v>12.23135460444874</v>
+        <v>22.30383707355826</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.16930997861951</v>
+        <v>26.11319286832414</v>
       </c>
       <c r="F15">
-        <v>42.10303616101494</v>
+        <v>47.09926986125993</v>
       </c>
       <c r="G15">
-        <v>29.09234504623275</v>
+        <v>37.20043703410379</v>
       </c>
       <c r="H15">
-        <v>13.46369401212254</v>
+        <v>10.0090516088451</v>
       </c>
       <c r="I15">
-        <v>18.08757507162209</v>
+        <v>12.30085434457513</v>
       </c>
       <c r="J15">
-        <v>7.64039333883755</v>
+        <v>4.34730957733755</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.88979745260382</v>
+        <v>10.19257102751588</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.09078730274225</v>
+        <v>27.3146978538843</v>
       </c>
       <c r="C16">
-        <v>11.85133965811622</v>
+        <v>21.56336270446032</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.99803611850557</v>
+        <v>25.32358472970332</v>
       </c>
       <c r="F16">
-        <v>41.82658287507908</v>
+        <v>45.64726102712205</v>
       </c>
       <c r="G16">
-        <v>28.84766083679524</v>
+        <v>35.89252432384882</v>
       </c>
       <c r="H16">
-        <v>13.47453669299246</v>
+        <v>9.846228685132543</v>
       </c>
       <c r="I16">
-        <v>18.13705786202122</v>
+        <v>12.18706859708099</v>
       </c>
       <c r="J16">
-        <v>7.654908502534006</v>
+        <v>4.351123001953656</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.92313261885891</v>
+        <v>10.30705737864684</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.83312576652936</v>
+        <v>26.73130397339342</v>
       </c>
       <c r="C17">
-        <v>11.61181542476878</v>
+        <v>21.09961724910118</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.89362713138379</v>
+        <v>24.83301479892804</v>
       </c>
       <c r="F17">
-        <v>41.65954337688888</v>
+        <v>44.75086944432313</v>
       </c>
       <c r="G17">
-        <v>28.70047084166497</v>
+        <v>35.10454168683129</v>
       </c>
       <c r="H17">
-        <v>13.48221433407441</v>
+        <v>9.750028573433138</v>
       </c>
       <c r="I17">
-        <v>18.16902632403785</v>
+        <v>12.12593850699769</v>
       </c>
       <c r="J17">
-        <v>7.664141497477031</v>
+        <v>4.354747737090412</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.94409239304946</v>
+        <v>10.3783306330968</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.68313522858029</v>
+        <v>26.39101076260665</v>
       </c>
       <c r="C18">
-        <v>11.47169089422794</v>
+        <v>20.8293472127019</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.83383423986911</v>
+        <v>24.54857296758325</v>
       </c>
       <c r="F18">
-        <v>41.56443480475158</v>
+        <v>44.23320382774438</v>
       </c>
       <c r="G18">
-        <v>28.61691507243572</v>
+        <v>34.6630287455685</v>
       </c>
       <c r="H18">
-        <v>13.48700626686938</v>
+        <v>9.696026075882191</v>
       </c>
       <c r="I18">
-        <v>18.18800329335378</v>
+        <v>12.09385621764165</v>
       </c>
       <c r="J18">
-        <v>7.669572679981913</v>
+        <v>4.357285798992924</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.95633546728927</v>
+        <v>10.41970107421684</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.63204691324474</v>
+        <v>26.27497442980751</v>
       </c>
       <c r="C19">
-        <v>11.42384187834096</v>
+        <v>20.73722664622948</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.81363573688342</v>
+        <v>24.45187395269566</v>
       </c>
       <c r="F19">
-        <v>41.532401662536</v>
+        <v>44.05757286903061</v>
       </c>
       <c r="G19">
-        <v>28.58881716895038</v>
+        <v>34.5135215069934</v>
       </c>
       <c r="H19">
-        <v>13.48869319655439</v>
+        <v>9.677967650992086</v>
       </c>
       <c r="I19">
-        <v>18.19452954245561</v>
+        <v>12.08351182525947</v>
       </c>
       <c r="J19">
-        <v>7.671432291897681</v>
+        <v>4.358221218615918</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.96051300000857</v>
+        <v>10.43377243922297</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.86074037844753</v>
+        <v>26.79389673947311</v>
       </c>
       <c r="C20">
-        <v>11.63755695576726</v>
+        <v>21.14934862346477</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.90471508154969</v>
+        <v>24.88547252046259</v>
       </c>
       <c r="F20">
-        <v>41.67722546514504</v>
+        <v>44.84650751017502</v>
       </c>
       <c r="G20">
-        <v>28.716025928697</v>
+        <v>35.18624688475415</v>
       </c>
       <c r="H20">
-        <v>13.48135810058339</v>
+        <v>9.760131093111724</v>
       </c>
       <c r="I20">
-        <v>18.16556214245155</v>
+        <v>12.13212483771467</v>
       </c>
       <c r="J20">
-        <v>7.663146145083706</v>
+        <v>4.354314549842446</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.94184178238402</v>
+        <v>10.37070443600469</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.60749208477926</v>
+        <v>28.48112759102155</v>
       </c>
       <c r="C21">
-        <v>12.32749368267289</v>
+        <v>22.49212103691928</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24.21372019193013</v>
+        <v>26.31516074324832</v>
       </c>
       <c r="F21">
-        <v>42.17517717208965</v>
+        <v>47.4724331941748</v>
       </c>
       <c r="G21">
-        <v>29.15639227298049</v>
+        <v>37.53737637539702</v>
       </c>
       <c r="H21">
-        <v>13.46121271009177</v>
+        <v>10.05224999962054</v>
       </c>
       <c r="I21">
-        <v>18.07530050100536</v>
+        <v>12.33300084747246</v>
       </c>
       <c r="J21">
-        <v>7.636747408976541</v>
+        <v>4.346738489521979</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.88134836141514</v>
+        <v>10.16333977950347</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.07891507548282</v>
+        <v>29.5427391400829</v>
       </c>
       <c r="C22">
-        <v>12.75753991050327</v>
+        <v>23.33929124443841</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>24.41762742927923</v>
+        <v>27.22961166139367</v>
       </c>
       <c r="F22">
-        <v>42.50861695784646</v>
+        <v>49.17066148994164</v>
       </c>
       <c r="G22">
-        <v>29.45332931960473</v>
+        <v>39.07478104836277</v>
       </c>
       <c r="H22">
-        <v>13.45141697887624</v>
+        <v>10.25555160665177</v>
       </c>
       <c r="I22">
-        <v>18.02162258333768</v>
+        <v>12.4939834646661</v>
       </c>
       <c r="J22">
-        <v>7.620570080765743</v>
+        <v>4.346241154143549</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.84347759334675</v>
+        <v>10.03130464506238</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.82885836822218</v>
+        <v>28.97983977447101</v>
       </c>
       <c r="C23">
-        <v>12.52991981705729</v>
+        <v>22.88986761362926</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>24.30863711959083</v>
+        <v>26.74334822335905</v>
       </c>
       <c r="F23">
-        <v>42.32995250800982</v>
+        <v>48.26587749385221</v>
       </c>
       <c r="G23">
-        <v>29.29404738565066</v>
+        <v>38.25486812106141</v>
       </c>
       <c r="H23">
-        <v>13.45633571500802</v>
+        <v>10.14588527409965</v>
       </c>
       <c r="I23">
-        <v>18.04978227247241</v>
+        <v>12.40523891184786</v>
       </c>
       <c r="J23">
-        <v>7.629105704503784</v>
+        <v>4.346077816180198</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.86353781042163</v>
+        <v>10.10144704198721</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84826159007045</v>
+        <v>26.76561380041219</v>
       </c>
       <c r="C24">
-        <v>11.6259267452752</v>
+        <v>21.12687647012244</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.89970148872898</v>
+        <v>24.8617638833529</v>
       </c>
       <c r="F24">
-        <v>41.66922850575097</v>
+        <v>44.80327676478223</v>
       </c>
       <c r="G24">
-        <v>28.70899014638696</v>
+        <v>35.14930892927111</v>
       </c>
       <c r="H24">
-        <v>13.4817440266033</v>
+        <v>9.755559687584466</v>
       </c>
       <c r="I24">
-        <v>18.16712643717742</v>
+        <v>12.12931848529863</v>
       </c>
       <c r="J24">
-        <v>7.663595760745748</v>
+        <v>4.354508983722106</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.94285868210672</v>
+        <v>10.37415101237462</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.72265549818173</v>
+        <v>24.1954241359186</v>
       </c>
       <c r="C25">
-        <v>10.56065851794268</v>
+        <v>19.08951377129333</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.46876369304006</v>
+        <v>22.7453209036668</v>
       </c>
       <c r="F25">
-        <v>40.99387783991993</v>
+        <v>40.98931471020792</v>
       </c>
       <c r="G25">
-        <v>28.12048602497246</v>
+        <v>31.92694661640395</v>
       </c>
       <c r="H25">
-        <v>13.52350817164488</v>
+        <v>9.385027677693325</v>
       </c>
       <c r="I25">
-        <v>18.31620324695972</v>
+        <v>11.94787444911481</v>
       </c>
       <c r="J25">
-        <v>7.705409045983027</v>
+        <v>4.380725646369151</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.03559364439154</v>
+        <v>10.6826404543828</v>
       </c>
       <c r="O25">
         <v>0</v>
